--- a/صيدليات دكتور مصطفي طلعت_2026-01-12_13-14.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-12_13-14.xlsx
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>3:0</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:11</t>
   </si>
   <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
@@ -992,13 +998,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>42</v>
+        <v>-56.399999999999999</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1010,7 +1016,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1024,11 +1030,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1036,7 +1042,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1044,13 +1050,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1062,7 +1068,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1070,13 +1076,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1096,51 +1102,77 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>40</v>
+        <v>-15</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c t="s" r="B20" s="7">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c t="s" r="H20" s="8">
+        <v>14</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9">
+        <v>40</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c t="s" r="N20" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="26.25" customHeight="1">
-      <c r="K20" s="10">
-        <v>261</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="11">
-        <v>35</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c t="s" r="F21" s="12">
-        <v>36</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c t="s" r="I21" s="14">
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="K21" s="10">
+        <v>204.59999999999999</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="11">
         <v>37</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c t="s" r="F22" s="12">
+        <v>38</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c t="s" r="I22" s="14">
+        <v>39</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="62">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1196,10 +1228,13 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:N22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
